--- a/导入模板.xlsx
+++ b/导入模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13082\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program\C#\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5FD15D-F855-43C3-AD3C-F83355C9FD25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145713C2-3D70-4A87-A6E0-3EB5D5EFEE4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,58 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product3</t>
+  </si>
+  <si>
+    <t>product4</t>
+  </si>
+  <si>
+    <t>product5</t>
+  </si>
+  <si>
+    <t>product6</t>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -406,6 +458,99 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
